--- a/파이썬 강의일정.xlsx
+++ b/파이썬 강의일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dahlmoon/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dahlmoon/Documents/GitHub/python_basic_med/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB4A549-986F-0044-B118-C1736707CEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB86A33-FD6E-9E46-AB29-179640616E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="1520" windowWidth="28300" windowHeight="17440" xr2:uid="{C1971182-4141-0F40-AF02-B102190DBE0B}"/>
+    <workbookView xWindow="5300" yWindow="1520" windowWidth="28300" windowHeight="17440" xr2:uid="{C1971182-4141-0F40-AF02-B102190DBE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>환경설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제어문/순환문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,10 @@
   </si>
   <si>
     <t>복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아나콘다/주피터노트북 설치 및 사용법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +545,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5">
@@ -589,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
@@ -609,13 +609,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
@@ -626,13 +626,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
@@ -643,13 +643,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1">
@@ -660,13 +660,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1">
@@ -674,16 +674,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1">
@@ -691,16 +691,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
@@ -708,16 +708,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
